--- a/Reciproci/DataFiles/TestDatas/TestData.xlsx
+++ b/Reciproci/DataFiles/TestDatas/TestData.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Login" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="AddCommunication" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="SearchCommunication" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="campaign" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -140,6 +141,45 @@
   </si>
   <si>
     <t xml:space="preserve">Successfully added new communication setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campaignName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campaignDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notificationLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smsContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engEmailSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engEmailContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Campaign 010801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Just for the testing purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy birthday dear</t>
   </si>
 </sst>
 </file>
@@ -150,7 +190,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -193,13 +233,27 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,6 +312,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,7 +347,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF6A3E3E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -344,7 +402,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.14"/>
   </cols>
@@ -433,11 +491,11 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -521,7 +579,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
@@ -606,7 +664,7 @@
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -616,4 +674,88 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="18.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>